--- a/Other/ExperienceTaxonomy.xlsx
+++ b/Other/ExperienceTaxonomy.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\IGMProfile\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12336" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="110000" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t>Control</t>
   </si>
@@ -174,13 +169,31 @@
   </si>
   <si>
     <t>User controls speed and can set goals and objectives for themselves</t>
+  </si>
+  <si>
+    <t>User may feel compelled to continue waving arms</t>
+  </si>
+  <si>
+    <t>Almost feel as they can fly. (almost)</t>
+  </si>
+  <si>
+    <t>Can't leave the ground, but could wack someone.</t>
+  </si>
+  <si>
+    <t>Validation of purpose by arm flailing. Not glamorous but rewarding</t>
+  </si>
+  <si>
+    <t>I fully expect some wonder from exploring the effect of the arm waving to propeller spinning</t>
+  </si>
+  <si>
+    <t>NYOOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -188,26 +201,31 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -460,6 +478,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,22 +502,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,11 +821,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -814,7 +835,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -844,11 +865,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -858,7 +879,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -879,38 +900,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B21" zoomScale="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:D25"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B12" zoomScale="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="4" width="41.125" customWidth="1"/>
+    <col min="2" max="4" width="41.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="19.8">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="29.1" customHeight="1">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19.8">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -922,7 +943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="38.1" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -936,7 +957,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="38.1" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -950,7 +971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="38.1" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -964,7 +985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="38.1" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -978,7 +999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="38.1" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -992,7 +1013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="38.1" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1006,7 +1027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="38.1" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1020,7 +1041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="38.1" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1034,7 +1055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="38.1" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1048,7 +1069,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="38.1" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1062,15 +1083,21 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="38.1" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="38.1" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1111,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="38.1" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1098,7 +1125,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="38.1" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="38.1" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1126,13 +1153,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="38.1" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
@@ -1140,7 +1167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="20.399999999999999" thickBot="1">
       <c r="A23" s="9"/>
       <c r="B23" s="11" t="s">
         <v>17</v>
@@ -1148,162 +1175,167 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+    <row r="24" spans="1:5" ht="42" customHeight="1">
+      <c r="A24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="27">
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:5" ht="42" customHeight="1">
+      <c r="A25" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="1:5" ht="42" customHeight="1">
+      <c r="A26" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" ht="42" customHeight="1">
+      <c r="A27" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:5" ht="42" customHeight="1">
+      <c r="A28" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="27">
+      <c r="B28" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:5" ht="42" customHeight="1">
+      <c r="A29" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" ht="42" customHeight="1">
+      <c r="A30" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="27">
+      <c r="B30" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:5" ht="42" customHeight="1">
+      <c r="A31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="27"/>
-    </row>
-    <row r="32" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" ht="42" customHeight="1">
+      <c r="A32" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="27"/>
-    </row>
-    <row r="33" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" ht="42" customHeight="1">
+      <c r="A33" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="27"/>
-    </row>
-    <row r="34" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" ht="42" customHeight="1">
+      <c r="A34" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="27"/>
-    </row>
-    <row r="35" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" ht="42" customHeight="1">
+      <c r="A35" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="27">
+      <c r="B35" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:5" ht="42" customHeight="1">
+      <c r="A36" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="27"/>
-    </row>
-    <row r="37" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5" ht="42" customHeight="1">
+      <c r="A37" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="B37" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="42" customHeight="1">
+      <c r="A38" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="27">
-        <v>8</v>
+      <c r="B38" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="21">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B37:D37"/>
@@ -1314,6 +1346,11 @@
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -1330,12 +1367,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1349,12 +1386,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
